--- a/experiment result/64_0.0_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.0_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1722822879855663</v>
+        <v>0.0064311506991733</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09112202519037417</v>
+        <v>0.01322449413948376</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0753635975607677</v>
+        <v>0.03349347174505685</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1601248600163694</v>
+        <v>0.03561643405386977</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1404103708791207</v>
+        <v>0.03442154268360949</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1106514725155996</v>
+        <v>0.02492214854614589</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1546724374361605</v>
+        <v>0.02862397523867758</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.180527691620909</v>
+        <v>0.03089002017771105</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1847243714467484</v>
+        <v>0.0149418086214002</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4255048992597207</v>
+        <v>0.02119214881833316</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.224683668865243</v>
+        <v>0.03217949171253345</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4029976810971022</v>
+        <v>0.03827024957429988</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04051582584484919</v>
+        <v>0.01992055551703297</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1296516213701082</v>
+        <v>0.02789097939825505</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1545295877304909</v>
+        <v>0.0258908175081788</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1092544280217796</v>
+        <v>0.03939383377090099</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1313359697349483</v>
+        <v>0.03004757560421108</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01673213888006977</v>
+        <v>0.0107134658385409</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3849023955010006</v>
+        <v>0.02584099496582451</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1751287836138988</v>
+        <v>0.02990045764160828</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1228906411620772</v>
+        <v>0.007725932518085098</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1015163329392291</v>
+        <v>0.01775403150666346</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2376097416990895</v>
+        <v>0.0232345156146406</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0771245270676184</v>
+        <v>0.005195783645244549</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04594092751716021</v>
+        <v>0.01866789526334612</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2189443207729589</v>
+        <v>0.03553257745478115</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1985822973219868</v>
+        <v>0.03110907577963243</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2251043001324372</v>
+        <v>0.02969921899769561</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1705181478968792</v>
+        <v>0.02241031346828878</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1628978467500346</v>
+        <v>0.03708020366363644</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02226070886267518</v>
+        <v>0.00160893497981754</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05313792205418042</v>
+        <v>0.03035164758299991</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198709975432343</v>
+        <v>0.04121895643489627</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0620760506188636</v>
+        <v>0.02173947532078544</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1075390920719448</v>
+        <v>0.03215088381052814</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2171109072420522</v>
+        <v>0.03114519504753255</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09633021558151827</v>
+        <v>0.027206413009356</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1537036404617175</v>
+        <v>0.02599872736290958</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1686220132560247</v>
+        <v>0.03148635298492238</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2198831288385592</v>
+        <v>0.02428057731613346</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3869021607057084</v>
+        <v>0.0340041178822016</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3162934684973697</v>
+        <v>0.008500599842309118</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2062669817090492</v>
+        <v>0.02937443714053632</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1092544280217796</v>
+        <v>0.0240855296183127</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1463899949843055</v>
+        <v>0.04082598058215512</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1982983607793526</v>
+        <v>0.03354824505854937</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2932136427889669</v>
+        <v>0.03855336176212958</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04954461661402697</v>
+        <v>0.01859889319588622</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08747115443673295</v>
+        <v>0.01222819162860136</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03597687285005172</v>
+        <v>0.01084330469557348</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.353143077296999</v>
+        <v>0.05656240235743896</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1288085648468865</v>
+        <v>0.03645559024793657</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.004670002193580284</v>
+        <v>0.01170858674367539</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02317978612363895</v>
+        <v>0.01328021343123684</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3569305195775935</v>
+        <v>0.03290087766018755</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2515877872659814</v>
+        <v>0.04850905164963717</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1561797704894263</v>
+        <v>0.03584332964866229</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1455585910710876</v>
+        <v>0.04267578922533877</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08414319124704475</v>
+        <v>0.05014134590301789</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08938103223426783</v>
+        <v>0.03771662404994692</v>
       </c>
     </row>
   </sheetData>
